--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/10/seed2/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.093999999999999</v>
+        <v>-8.233999999999998</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.156000000000001</v>
+        <v>-8.1</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.888</v>
+        <v>-7.874</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.622</v>
+        <v>-8.052000000000001</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.26</v>
+        <v>16.727</v>
       </c>
     </row>
     <row r="28">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.872</v>
+        <v>16.675</v>
       </c>
     </row>
     <row r="32">
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.758</v>
+        <v>16.604</v>
       </c>
     </row>
     <row r="40">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.122</v>
+        <v>17.062</v>
       </c>
     </row>
     <row r="49">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>16.806</v>
+        <v>16.617</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>16.478</v>
+        <v>16.543</v>
       </c>
     </row>
     <row r="53">
@@ -1338,7 +1338,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-7.431999999999999</v>
+        <v>-7.755</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.688</v>
+        <v>16.416</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.172</v>
+        <v>16.276</v>
       </c>
     </row>
     <row r="57">
@@ -1406,10 +1406,10 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-7.752</v>
+        <v>-7.923999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>16.836</v>
+        <v>16.568</v>
       </c>
     </row>
     <row r="58">
@@ -1440,7 +1440,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-7.956</v>
+        <v>-8.061</v>
       </c>
       <c r="E59" t="n">
         <v>16.47</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.529999999999999</v>
+        <v>-7.597</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>16.558</v>
+        <v>16.572</v>
       </c>
     </row>
     <row r="74">
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-7.504</v>
+        <v>-7.772</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.484</v>
+        <v>-8.237</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.128</v>
+        <v>17.362</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>16.444</v>
+        <v>16.73</v>
       </c>
     </row>
     <row r="91">
@@ -2018,7 +2018,7 @@
         <v>-11.3</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.409999999999999</v>
+        <v>-7.516999999999999</v>
       </c>
       <c r="E93" t="n">
         <v>18.32</v>
